--- a/biology/Zoologie/Haitiophis_anomalus/Haitiophis_anomalus.xlsx
+++ b/biology/Zoologie/Haitiophis_anomalus/Haitiophis_anomalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haitiophis anomalus, unique représentant du genre Haitiophis, est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haitiophis anomalus, unique représentant du genre Haitiophis, est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre aussi sur l'île de la Tortue et l'île Beata[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre aussi sur l'île de la Tortue et l'île Beata.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est dérivé du taïno Haiti qui signifie hautes montagnes et du mot grec ophis, le serpent[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est dérivé du taïno Haiti qui signifie hautes montagnes et du mot grec ophis, le serpent.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1863 : Über einige neue oder weniger bekannte Schlangenarten des zoologischen Museums zu Berlin. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1863, p. 272-289 (texte intégral).
 Hedges, Couloux &amp; Vidal, 2009 : Molecular phylogeny, classification, and biogeography of West Indian racer snakes of the Tribe Alsophiini (Squamata, Dipsadidae, Xenodontinae). Zootaxa, no 2067, p. 1–28 (texte intégral).</t>
